--- a/outputs/coordinates.xlsx
+++ b/outputs/coordinates.xlsx
@@ -486,7 +486,7 @@
         <v>2.036676589947906</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5842299195104992</v>
+        <v>-0.584229919510499</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>2.324027885819326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04651079181612846</v>
+        <v>0.04651079181612864</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>2.505605886992805</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7963888384764212</v>
+        <v>-0.7963888384764209</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>2.534120149598683</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8728269516915981</v>
+        <v>-0.8728269516915984</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>2.791444439158372</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6468153284901917</v>
+        <v>-0.6468153284901919</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>1.92744298027994</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6651651250088533</v>
+        <v>-0.6651651250088531</v>
       </c>
     </row>
     <row r="13">
@@ -616,7 +616,7 @@
         <v>1.999385384446743</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9576309347102373</v>
+        <v>-0.9576309347102371</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>2.143934867506572</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9516510608134089</v>
+        <v>-0.9516510608134087</v>
       </c>
     </row>
     <row r="16">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6588253915144546</v>
+        <v>0.6588253915144547</v>
       </c>
       <c r="C17" t="n">
         <v>-1.632414024133055</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.76492991998517</v>
+        <v>0.7649299199851699</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.113489021489304</v>
+        <v>-1.113489021489303</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0.9984696843186376</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7810171872306541</v>
+        <v>-0.7810171872306538</v>
       </c>
     </row>
     <row r="20">
@@ -707,7 +707,7 @@
         <v>1.288402363382862</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.396123839789999</v>
+        <v>-0.3961238397899988</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>1.287752733820763</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5969264364417745</v>
+        <v>-0.5969264364417739</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>1.393242812242508</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3192814097239744</v>
+        <v>-0.3192814097239743</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>1.439647795501033</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2464506955090848</v>
+        <v>-0.2464506955090849</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>1.497862730629755</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2159513129476819</v>
+        <v>-0.2159513129476818</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>1.538185428886119</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6811757987611765</v>
+        <v>-0.6811757987611763</v>
       </c>
     </row>
     <row r="28">
@@ -837,7 +837,7 @@
         <v>1.83544048442144</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4411101874006917</v>
+        <v>-0.4411101874006915</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.880622601928476</v>
+        <v>1.880622601928475</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4690912219887445</v>
+        <v>-0.4690912219887447</v>
       </c>
     </row>
     <row r="33">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.2826234741310566</v>
+        <v>-0.2826234741310565</v>
       </c>
       <c r="C33" t="n">
         <v>-1.700850000875089</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05519818008664188</v>
+        <v>0.05519818008664183</v>
       </c>
       <c r="C34" t="n">
         <v>-1.362829326900582</v>
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1940639687847627</v>
+        <v>0.1940639687847631</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.7962794845983566</v>
+        <v>-0.7962794845983563</v>
       </c>
     </row>
     <row r="36">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.4357250591007896</v>
+        <v>0.4357250591007897</v>
       </c>
       <c r="C36" t="n">
         <v>-0.3241448841822928</v>
@@ -915,7 +915,7 @@
         <v>0.6442894524258458</v>
       </c>
       <c r="C37" t="n">
-        <v>0.18833114101171</v>
+        <v>0.1883311410117106</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>0.7787340072897477</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3896684143855058</v>
+        <v>0.389668414385506</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7568095338702786</v>
+        <v>0.7568095338702787</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3995995923403156</v>
+        <v>0.3995995923403158</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>0.9032907126547485</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5708003487466891</v>
+        <v>0.5708003487466894</v>
       </c>
     </row>
     <row r="41">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9518755865177175</v>
+        <v>0.9518755865177176</v>
       </c>
       <c r="C41" t="n">
         <v>0.5178273267420365</v>
@@ -993,7 +993,7 @@
         <v>1.045324176161049</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.007504692679769358</v>
+        <v>-0.007504692679769238</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.968640554421585</v>
+        <v>0.9686405544215851</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.3541930041439185</v>
+        <v>-0.3541930041439184</v>
       </c>
     </row>
     <row r="45">
@@ -1032,7 +1032,7 @@
         <v>1.015981716685391</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02628065336850258</v>
+        <v>0.02628065336850289</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>1.064008374987935</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0349315813842738</v>
+        <v>0.03493158138427386</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>1.026656374485511</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01054874818944174</v>
+        <v>-0.01054874818944151</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.07430509477893</v>
+        <v>1.074305094778929</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.08902138312317304</v>
+        <v>-0.0890213831231732</v>
       </c>
     </row>
     <row r="50">
@@ -1097,7 +1097,7 @@
         <v>-0.7117926875592457</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8569902074205807</v>
+        <v>-0.8569902074205805</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.5334140972388456</v>
+        <v>-0.5334140972388454</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.3163151716416426</v>
+        <v>-0.3163151716416425</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.6610641118108657</v>
+        <v>-0.6610641118108654</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.04038525206673381</v>
+        <v>-0.04038525206673355</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.8059743083135404</v>
+        <v>-0.8059743083135402</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1197535997308786</v>
+        <v>-0.1197535997308784</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.8674456403875009</v>
+        <v>-0.8674456403875007</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.06845894449381236</v>
+        <v>-0.06845894449381217</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>-0.8128246587030096</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.09642634566985132</v>
+        <v>-0.09642634566985113</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>-0.9776728605534376</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.02828063435713567</v>
+        <v>-0.02828063435713524</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>-1.089202307072751</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.06201805295519321</v>
+        <v>-0.06201805295519298</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>-1.014447460957937</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3392383512838254</v>
+        <v>0.3392383512838253</v>
       </c>
     </row>
     <row r="60">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.200581809843403</v>
+        <v>-1.200581809843402</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4394632395135949</v>
+        <v>0.4394632395135953</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         <v>-1.263616396416162</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5470196889865493</v>
+        <v>0.5470196889865495</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         <v>-1.335844214922722</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6707696909001728</v>
+        <v>0.6707696909001729</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>-1.40571722513877</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6853777898483626</v>
+        <v>0.6853777898483627</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         <v>-1.504508698902022</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5487802064578653</v>
+        <v>0.5487802064578655</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1292,7 @@
         <v>-1.475515271691897</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9318915264820502</v>
+        <v>0.9318915264820499</v>
       </c>
     </row>
     <row r="67">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.201064141677636</v>
+        <v>-1.201064141677635</v>
       </c>
       <c r="C68" t="n">
         <v>1.968847599006319</v>
@@ -1370,7 +1370,7 @@
         <v>-1.000138005295321</v>
       </c>
       <c r="C72" t="n">
-        <v>2.575254133518217</v>
+        <v>2.575254133518218</v>
       </c>
     </row>
     <row r="73">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.9823065370651458</v>
+        <v>-0.9823065370651456</v>
       </c>
       <c r="C74" t="n">
         <v>2.336163672860866</v>

--- a/outputs/coordinates.xlsx
+++ b/outputs/coordinates.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.146540034901733</v>
+        <v>1.142562976665168</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.859880205825296</v>
+        <v>-1.862113968758552</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.738367848845955</v>
+        <v>1.737828620501942</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.173681509304276</v>
+        <v>-1.174203374413142</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.036676589947906</v>
+        <v>2.03488107427613</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.584229919510499</v>
+        <v>-0.580778259787933</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.324027885819326</v>
+        <v>2.322394743509811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04651079181612864</v>
+        <v>0.0518650369105307</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.505605886992805</v>
+        <v>2.506855104093975</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7963888384764209</v>
+        <v>-0.79928189462083</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.534120149598683</v>
+        <v>2.533990563230393</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8728269516915984</v>
+        <v>-0.8743131357841244</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.791444439158372</v>
+        <v>2.791896723398236</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6468153284901919</v>
+        <v>-0.6488409755194009</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7837908078650884</v>
+        <v>0.7810202727931049</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.866804033893241</v>
+        <v>-1.871919643633677</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.289003798077483</v>
+        <v>1.289081867979343</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.51900221267411</v>
+        <v>-1.523085633312892</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.661700715110997</v>
+        <v>1.660349615703505</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.12632582604448</v>
+        <v>-1.124988581082202</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.92744298027994</v>
+        <v>1.926116145390985</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6651651250088531</v>
+        <v>-0.6622221893593738</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.949306298933651</v>
+        <v>1.950166822156535</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9634590078472167</v>
+        <v>-0.9648501579319154</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.999385384446743</v>
+        <v>1.999666193431943</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9576309347102371</v>
+        <v>-0.95826048238428</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.143934867506572</v>
+        <v>2.14347305668171</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9516510608134087</v>
+        <v>-0.9529642374738715</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2544586708032467</v>
+        <v>0.2519121271453982</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.004438358549681</v>
+        <v>-2.011132888044081</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6588253915144547</v>
+        <v>0.658309874565959</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.632414024133055</v>
+        <v>-1.635886712593401</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7649299199851699</v>
+        <v>0.7644812316177167</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.113489021489303</v>
+        <v>-1.116411533136341</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9984696843186376</v>
+        <v>0.9993412269120203</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7810171872306538</v>
+        <v>-0.7846265972659698</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.146512417212284</v>
+        <v>1.148244655485569</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5143763625313256</v>
+        <v>-0.5185868270679973</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.288402363382862</v>
+        <v>1.290616349625374</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3961238397899988</v>
+        <v>-0.4055492465998949</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.287752733820763</v>
+        <v>1.292097633777919</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5969264364417739</v>
+        <v>-0.6061754495237107</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.393242812242508</v>
+        <v>1.398308026921975</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3192814097239743</v>
+        <v>-0.3282412282043858</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.439647795501033</v>
+        <v>1.444812736595778</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2464506955090849</v>
+        <v>-0.2560799528164394</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.497862730629755</v>
+        <v>1.50349070473992</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2159513129476818</v>
+        <v>-0.227456581693297</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.628266017757615</v>
+        <v>1.633766238231533</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2698623612424677</v>
+        <v>-0.285948146204295</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.538185428886119</v>
+        <v>1.545739511429593</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6811757987611763</v>
+        <v>-0.6993330695448499</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.546646392495143</v>
+        <v>1.55175620969774</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5974555360195998</v>
+        <v>-0.6100184640541455</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.687875578666264</v>
+        <v>1.692606464958324</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2374073308909704</v>
+        <v>-0.2477341362510421</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.832444007835284</v>
+        <v>1.837399929067153</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3467598309294119</v>
+        <v>-0.3581118762814025</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.83544048442144</v>
+        <v>1.840897829625294</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4411101874006915</v>
+        <v>-0.4533046170595087</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.880622601928475</v>
+        <v>1.885776248105448</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4690912219887447</v>
+        <v>-0.4815024470559824</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.2826234741310565</v>
+        <v>-0.2837775915108768</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.700850000875089</v>
+        <v>-1.708658080682573</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05519818008664183</v>
+        <v>0.05595112071656824</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.362829326900582</v>
+        <v>-1.367825521975049</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1940639687847631</v>
+        <v>0.1945782782271253</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.7962794845983563</v>
+        <v>-0.7994138659855533</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.4357250591007897</v>
+        <v>0.4369616850936589</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3241448841822928</v>
+        <v>-0.3261878065552647</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6442894524258458</v>
+        <v>0.6456884852505813</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1883311410117106</v>
+        <v>0.1827771084569298</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7787340072897477</v>
+        <v>0.7815090186032895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.389668414385506</v>
+        <v>0.3825555218591959</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7568095338702787</v>
+        <v>0.7612285965780556</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3995995923403158</v>
+        <v>0.3945846197276999</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9032907126547485</v>
+        <v>0.9077485343140105</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5708003487466894</v>
+        <v>0.5614091219143219</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9518755865177176</v>
+        <v>0.9570485463830735</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5178273267420365</v>
+        <v>0.5061167024460047</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.13688803303563</v>
+        <v>1.139694814877704</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4412482497538983</v>
+        <v>0.4188029303876263</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.045324176161049</v>
+        <v>1.053074916378498</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.007504692679769238</v>
+        <v>-0.02608360179993519</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9686405544215851</v>
+        <v>0.9781608729218807</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.3541930041439184</v>
+        <v>-0.3741640169317323</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8992858377078614</v>
+        <v>0.9058597668938614</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2265758794202916</v>
+        <v>-0.239748474245206</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.015981716685391</v>
+        <v>1.022177173179157</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02628065336850289</v>
+        <v>0.01484716529407383</v>
       </c>
     </row>
     <row r="47">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.064008374987935</v>
+        <v>1.069837937010025</v>
       </c>
       <c r="C47" t="n">
-        <v>0.03493158138427386</v>
+        <v>0.02395907552993318</v>
       </c>
     </row>
     <row r="48">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.026656374485511</v>
+        <v>1.03343114350759</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.01054874818944151</v>
+        <v>-0.02291541750110703</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.074305094778929</v>
+        <v>1.080549392520621</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0890213831231732</v>
+        <v>-0.1012865709451655</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1.09005868546572</v>
+        <v>-1.090094392562185</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.25141721467059</v>
+        <v>-1.258488287370481</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.7117926875592457</v>
+        <v>-0.7096816774251941</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8569902074205805</v>
+        <v>-0.8614194102090037</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.5334140972388454</v>
+        <v>-0.531506476538664</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.3163151716416425</v>
+        <v>-0.3188428215935862</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.6610641118108654</v>
+        <v>-0.6596559722317076</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.04038525206673355</v>
+        <v>-0.03943589655576273</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.8059743083135402</v>
+        <v>-0.804253168544785</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1197535997308784</v>
+        <v>-0.1191526429579547</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.8674456403875007</v>
+        <v>-0.8652937169630045</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.06845894449381217</v>
+        <v>-0.06812900088738168</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.8128246587030096</v>
+        <v>-0.81092871770703</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.09642634566985113</v>
+        <v>-0.09556461431892446</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.9776728605534376</v>
+        <v>-0.9750217026358816</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.02828063435713524</v>
+        <v>-0.02796089341807449</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.089202307072751</v>
+        <v>-1.086746179824052</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.06201805295519298</v>
+        <v>-0.06146655458469623</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1.014447460957937</v>
+        <v>-1.011719935874619</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3392383512838253</v>
+        <v>0.3406629270132578</v>
       </c>
     </row>
     <row r="60">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1.152694476697362</v>
+        <v>-1.150490810268203</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4440026716657338</v>
+        <v>0.4478159680013867</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.200581809843402</v>
+        <v>-1.197824828571679</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4394632395135953</v>
+        <v>0.4426624208379091</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1.263616396416162</v>
+        <v>-1.260887602583583</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5470196889865495</v>
+        <v>0.5509359312621941</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1.335844214922722</v>
+        <v>-1.333083371587009</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6707696909001729</v>
+        <v>0.6753918507031873</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1.40571722513877</v>
+        <v>-1.402472688342333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6853777898483627</v>
+        <v>0.6896014214036615</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1.504508698902022</v>
+        <v>-1.501128772275711</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5487802064578655</v>
+        <v>0.5527098825220922</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1.475515271691897</v>
+        <v>-1.472260297289978</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9318915264820499</v>
+        <v>0.936177891579281</v>
       </c>
     </row>
     <row r="67">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.301255068897535</v>
+        <v>-1.297159837519707</v>
       </c>
       <c r="C67" t="n">
-        <v>1.46090762423044</v>
+        <v>1.465971643616771</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.201064141677635</v>
+        <v>-1.195884213687278</v>
       </c>
       <c r="C68" t="n">
-        <v>1.968847599006319</v>
+        <v>1.97441977957847</v>
       </c>
     </row>
     <row r="69">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1.064631109619487</v>
+        <v>-1.058234934641935</v>
       </c>
       <c r="C69" t="n">
-        <v>2.399955556205881</v>
+        <v>2.40556655263965</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1.083536904559116</v>
+        <v>-1.076109068766948</v>
       </c>
       <c r="C70" t="n">
-        <v>2.462282603086922</v>
+        <v>2.465814281854038</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1.022615155192343</v>
+        <v>-1.013890352728965</v>
       </c>
       <c r="C71" t="n">
-        <v>2.684964248533816</v>
+        <v>2.687661065535386</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.000138005295321</v>
+        <v>-0.9905899592184247</v>
       </c>
       <c r="C72" t="n">
-        <v>2.575254133518218</v>
+        <v>2.575533023340149</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.9466215456225064</v>
+        <v>-0.9369833740751754</v>
       </c>
       <c r="C73" t="n">
-        <v>2.591872269196812</v>
+        <v>2.585648959490931</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.9823065370651456</v>
+        <v>-0.9709609978984567</v>
       </c>
       <c r="C74" t="n">
-        <v>2.336163672860866</v>
+        <v>2.326156558181713</v>
       </c>
     </row>
     <row r="75">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.06908943737579</v>
+        <v>-1.056117657269344</v>
       </c>
       <c r="C75" t="n">
-        <v>1.719229923660287</v>
+        <v>1.707382312196809</v>
       </c>
     </row>
     <row r="76">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1.165363305721571</v>
+        <v>-1.154612322176035</v>
       </c>
       <c r="C76" t="n">
-        <v>1.549242058684129</v>
+        <v>1.541114076956906</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1.144485394690499</v>
+        <v>-1.134589077455673</v>
       </c>
       <c r="C77" t="n">
-        <v>1.690716195300333</v>
+        <v>1.68427255540217</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1.091606255895484</v>
+        <v>-1.082453144837036</v>
       </c>
       <c r="C78" t="n">
-        <v>1.824679177437814</v>
+        <v>1.820717837682266</v>
       </c>
     </row>
     <row r="79">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-2.311387903051914</v>
+        <v>-2.305159815900437</v>
       </c>
       <c r="C79" t="n">
-        <v>1.908871458651418</v>
+        <v>1.910100981218479</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-2.40033186565549</v>
+        <v>-2.392755317663273</v>
       </c>
       <c r="C80" t="n">
-        <v>2.302811400725105</v>
+        <v>2.304701609349714</v>
       </c>
     </row>
   </sheetData>
